--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2600716.31763619</v>
+        <v>-2603622.705589219</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663198</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9311922907017</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>41.0957282991631</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>44.72530032193265</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>171.8090346547065</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>12.24050011784091</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>172.866144160477</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.8012719186829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>212.568965117905</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>72.90869593917581</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>107.2977824924678</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>79.63579206135107</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>200.23271911891</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>210.0189655889569</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.59144668771794</v>
       </c>
       <c r="H8" t="n">
-        <v>301.4665449294817</v>
+        <v>301.4665449294816</v>
       </c>
       <c r="I8" t="n">
-        <v>67.3963499464077</v>
+        <v>67.39634994640758</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>124.4490298564779</v>
+        <v>124.4490298564778</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.8496739671129</v>
       </c>
       <c r="U8" t="n">
-        <v>39.77166235180812</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3578015096544</v>
+        <v>103.0523271239506</v>
       </c>
       <c r="H9" t="n">
         <v>93.05761147715066</v>
       </c>
       <c r="I9" t="n">
-        <v>21.02879127064101</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>152.4387195471285</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3262220590292</v>
       </c>
       <c r="H10" t="n">
-        <v>147.4259666997844</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.20455348204018</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4398495319113</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.004418555096</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>180.2496234191135</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2282244128857</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>164.822430874919</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>220.8531394778955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>52.54490042791004</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>184.5976356537998</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.3673327389937</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389937</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389937</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389937</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036619</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871772</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W2" t="n">
-        <v>211.3673327389937</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X2" t="n">
-        <v>211.3673327389937</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.3673327389937</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122419</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C3" t="n">
-        <v>203.0474416122419</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D3" t="n">
-        <v>203.0474416122419</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E3" t="n">
-        <v>203.0474416122419</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>56.5128836391269</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>56.5128836391269</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652792</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487946</v>
+        <v>326.0857076000549</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>355.5217864184852</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>186.5856034905784</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>186.5856034905784</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428081</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394158</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340724</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287291</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652792</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487946</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487946</v>
+        <v>544.94157143497</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487946</v>
+        <v>544.94157143497</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487946</v>
+        <v>544.94157143497</v>
       </c>
       <c r="X4" t="n">
-        <v>386.07029682003</v>
+        <v>544.94157143497</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.6505118035453</v>
+        <v>355.5217864184852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7894056603333</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4117490931552</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4117490931552</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931552</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395173</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
-        <v>81.50243557050727</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>81.50243557050727</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052549</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030609</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275113</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603333</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7894056603333</v>
+        <v>840.1393936243021</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.8797293793793</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>371.2345819660704</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278864</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166548</v>
+        <v>826.7196740428378</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849122</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="W6" t="n">
-        <v>652.7312295849122</v>
+        <v>337.3302090828935</v>
       </c>
       <c r="X6" t="n">
-        <v>444.8797293793793</v>
+        <v>129.4787088773607</v>
       </c>
       <c r="Y6" t="n">
-        <v>444.8797293793793</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407079</v>
+        <v>974.4153260046596</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407079</v>
+        <v>767.628291415171</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407079</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407079</v>
+        <v>275.7815986060074</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348211</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="W7" t="n">
-        <v>405.000847067643</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>202.7455752303602</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.7455752303602</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1600.214018903549</v>
+        <v>1397.617165811258</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.251501963137</v>
+        <v>1185.476796529484</v>
       </c>
       <c r="D8" t="n">
-        <v>1231.251501963137</v>
+        <v>827.2110979227332</v>
       </c>
       <c r="E8" t="n">
-        <v>845.463249364893</v>
+        <v>441.4228453244889</v>
       </c>
       <c r="F8" t="n">
         <v>434.4773445752855</v>
@@ -4799,55 +4799,55 @@
         <v>118.2571510225586</v>
       </c>
       <c r="I8" t="n">
-        <v>50.18002986457103</v>
+        <v>50.18002986457113</v>
       </c>
       <c r="J8" t="n">
-        <v>182.7858425480094</v>
+        <v>182.7858425480101</v>
       </c>
       <c r="K8" t="n">
-        <v>432.2660994956576</v>
+        <v>432.2660994956585</v>
       </c>
       <c r="L8" t="n">
-        <v>778.6701806505198</v>
+        <v>778.6701806505212</v>
       </c>
       <c r="M8" t="n">
-        <v>1195.780903300228</v>
+        <v>1195.78090330023</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.254721897075</v>
+        <v>1624.254721897078</v>
       </c>
       <c r="O8" t="n">
-        <v>2015.5151374636</v>
+        <v>2015.515137463604</v>
       </c>
       <c r="P8" t="n">
-        <v>2314.945849161038</v>
+        <v>2314.945849161041</v>
       </c>
       <c r="Q8" t="n">
-        <v>2491.63309695118</v>
+        <v>2491.633096951184</v>
       </c>
       <c r="R8" t="n">
-        <v>2509.001493228552</v>
+        <v>2509.001493228556</v>
       </c>
       <c r="S8" t="n">
-        <v>2383.295402464433</v>
+        <v>2383.295402464437</v>
       </c>
       <c r="T8" t="n">
-        <v>2383.295402464433</v>
+        <v>2174.356337851192</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.122006149475</v>
+        <v>2174.356337851192</v>
       </c>
       <c r="V8" t="n">
-        <v>2343.122006149475</v>
+        <v>2174.356337851192</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.353350879361</v>
+        <v>2174.356337851192</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.353350879361</v>
+        <v>2174.356337851192</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.214018903549</v>
+        <v>1784.21700587538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3033244698087</v>
+        <v>877.4303288573394</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8502951886817</v>
+        <v>702.9772995762124</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9158855274304</v>
+        <v>554.0428899149612</v>
       </c>
       <c r="E9" t="n">
-        <v>448.678430521975</v>
+        <v>394.8054349095057</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14387254886</v>
+        <v>248.2708769363906</v>
       </c>
       <c r="G9" t="n">
-        <v>165.418820518906</v>
+        <v>144.1776172152284</v>
       </c>
       <c r="H9" t="n">
-        <v>71.42123316824882</v>
+        <v>50.18002986457113</v>
       </c>
       <c r="I9" t="n">
-        <v>50.18002986457103</v>
+        <v>50.18002986457113</v>
       </c>
       <c r="J9" t="n">
-        <v>110.3412965010729</v>
+        <v>110.3412965010731</v>
       </c>
       <c r="K9" t="n">
-        <v>291.3213082533447</v>
+        <v>291.3213082533453</v>
       </c>
       <c r="L9" t="n">
-        <v>580.9938095300793</v>
+        <v>580.9938095300802</v>
       </c>
       <c r="M9" t="n">
-        <v>938.3848237230904</v>
+        <v>1201.971679104148</v>
       </c>
       <c r="N9" t="n">
-        <v>1559.362693297157</v>
+        <v>1822.949548678215</v>
       </c>
       <c r="O9" t="n">
-        <v>1923.009319548979</v>
+        <v>2149.5070118005</v>
       </c>
       <c r="P9" t="n">
-        <v>2165.767407275837</v>
+        <v>2392.265099527358</v>
       </c>
       <c r="Q9" t="n">
-        <v>2486.102078496578</v>
+        <v>2509.001493228556</v>
       </c>
       <c r="R9" t="n">
-        <v>2509.001493228552</v>
+        <v>2509.001493228556</v>
       </c>
       <c r="S9" t="n">
-        <v>2372.840509625573</v>
+        <v>2372.840509625577</v>
       </c>
       <c r="T9" t="n">
-        <v>2178.738589295956</v>
+        <v>2178.738589295961</v>
       </c>
       <c r="U9" t="n">
-        <v>1950.646929807834</v>
+        <v>1950.646929807838</v>
       </c>
       <c r="V9" t="n">
-        <v>1715.494821576091</v>
+        <v>1715.494821576096</v>
       </c>
       <c r="W9" t="n">
-        <v>1461.25746484789</v>
+        <v>1461.257464847894</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.278960254831</v>
+        <v>1253.405964642361</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.518661489877</v>
+        <v>1045.645665877408</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.8343717513515</v>
+        <v>696.2735726011344</v>
       </c>
       <c r="C10" t="n">
-        <v>493.8981888234446</v>
+        <v>527.3373896732276</v>
       </c>
       <c r="D10" t="n">
-        <v>493.8981888234446</v>
+        <v>527.3373896732276</v>
       </c>
       <c r="E10" t="n">
-        <v>345.9850952410515</v>
+        <v>379.4242960908344</v>
       </c>
       <c r="F10" t="n">
-        <v>199.0951477431411</v>
+        <v>232.5343485929241</v>
       </c>
       <c r="G10" t="n">
-        <v>199.0951477431411</v>
+        <v>64.52806368481373</v>
       </c>
       <c r="H10" t="n">
-        <v>50.18002986457103</v>
+        <v>64.52806368481373</v>
       </c>
       <c r="I10" t="n">
-        <v>50.18002986457103</v>
+        <v>50.18002986457113</v>
       </c>
       <c r="J10" t="n">
-        <v>74.27579920803534</v>
+        <v>74.27579920803552</v>
       </c>
       <c r="K10" t="n">
-        <v>243.7093868807946</v>
+        <v>243.7093868807949</v>
       </c>
       <c r="L10" t="n">
-        <v>516.0524797623409</v>
+        <v>516.0524797623415</v>
       </c>
       <c r="M10" t="n">
-        <v>813.5892089811318</v>
+        <v>813.5892089811327</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.485796228242</v>
+        <v>1109.485796228243</v>
       </c>
       <c r="O10" t="n">
-        <v>1366.777891286913</v>
+        <v>1366.777891286914</v>
       </c>
       <c r="P10" t="n">
-        <v>1563.41504496365</v>
+        <v>1563.415044963652</v>
       </c>
       <c r="Q10" t="n">
-        <v>1616.121337509881</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="R10" t="n">
-        <v>1512.646742023102</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="S10" t="n">
-        <v>1315.672581866439</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="T10" t="n">
-        <v>1133.602255180466</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="U10" t="n">
-        <v>844.4828365815912</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="V10" t="n">
-        <v>844.4828365815912</v>
+        <v>1616.121337509882</v>
       </c>
       <c r="W10" t="n">
-        <v>844.4828365815912</v>
+        <v>1326.704167472922</v>
       </c>
       <c r="X10" t="n">
-        <v>844.4828365815912</v>
+        <v>1098.714616574904</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.4828365815912</v>
+        <v>877.9220374313742</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.377101239902</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.692613034015</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.275442997055</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>982.2858920990371</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5458,25 +5458,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
         <v>1113.119525808646</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6245,13 +6245,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,13 +6379,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6683,7 +6683,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6707,16 +6707,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -7026,7 +7026,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7096,31 +7096,31 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7494,13 +7494,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7549,16 +7549,16 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471059</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583205</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>266.2493488697535</v>
       </c>
       <c r="N9" t="n">
-        <v>242.1405391613857</v>
+        <v>242.1405391613864</v>
       </c>
       <c r="O9" t="n">
-        <v>37.46380114094745</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>4.422461958533248</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>22.39094785983163</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871052</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038151</v>
+        <v>173.9450204377217</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3097764267114</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>59.74602905157661</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22677,19 +22677,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>188.0752868274926</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.2281809946084</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378028</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.84351122856017</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>15.00954930701835</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>65.33133491134868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.83034628221165</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>41.11201973523731</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1405136.707730519</v>
+        <v>1405136.70773052</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1405136.707730519</v>
+        <v>1405136.70773052</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225017</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
+        <v>20178.66499225014</v>
+      </c>
+      <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
-      <c r="I2" t="n">
-        <v>20178.66499225016</v>
-      </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
@@ -26344,16 +26344,16 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477448</v>
+        <v>84336.10254477395</v>
       </c>
       <c r="D3" t="n">
-        <v>377667.3842427143</v>
+        <v>377667.3842427156</v>
       </c>
       <c r="E3" t="n">
-        <v>520208.8857598468</v>
+        <v>520208.8857598458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217638</v>
+        <v>68492.6627221763</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040626</v>
+        <v>19608.42855040623</v>
       </c>
       <c r="L3" t="n">
-        <v>92007.81462721563</v>
+        <v>92007.81462721601</v>
       </c>
       <c r="M3" t="n">
-        <v>135930.2941979527</v>
+        <v>135930.2941979525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179399.6252037868</v>
+        <v>179399.6252037867</v>
       </c>
       <c r="C4" t="n">
         <v>254806.1641956505</v>
       </c>
       <c r="D4" t="n">
-        <v>148890.5984727422</v>
+        <v>148890.5984727419</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26433,28 +26433,28 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493624</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493628</v>
+        <v>21597.66737493629</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493624</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>91889.82503145013</v>
+        <v>91889.82503145021</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811511.8725555273</v>
+        <v>-811941.4314221161</v>
       </c>
       <c r="C6" t="n">
-        <v>-381664.0256980842</v>
+        <v>-381664.0256980836</v>
       </c>
       <c r="D6" t="n">
-        <v>-597921.7635002995</v>
+        <v>-597921.7635003007</v>
       </c>
       <c r="E6" t="n">
-        <v>-614759.5587033464</v>
+        <v>-614794.2966287811</v>
       </c>
       <c r="F6" t="n">
-        <v>-94550.6729434997</v>
+        <v>-94585.41086893539</v>
       </c>
       <c r="G6" t="n">
-        <v>-94550.6729434997</v>
+        <v>-94585.4108689354</v>
       </c>
       <c r="H6" t="n">
-        <v>-94550.6729434997</v>
+        <v>-94585.4108689354</v>
       </c>
       <c r="I6" t="n">
-        <v>-94550.67294349973</v>
+        <v>-94585.4108689354</v>
       </c>
       <c r="J6" t="n">
-        <v>-172728.4017044209</v>
+        <v>-172728.4017044208</v>
       </c>
       <c r="K6" t="n">
-        <v>-123844.1675326508</v>
+        <v>-123844.1675326507</v>
       </c>
       <c r="L6" t="n">
-        <v>-196243.5536094602</v>
+        <v>-196243.5536094605</v>
       </c>
       <c r="M6" t="n">
-        <v>-240166.0331801972</v>
+        <v>-240166.033180197</v>
       </c>
       <c r="N6" t="n">
         <v>-104235.7389822446</v>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>923.1835933200064</v>
+        <v>923.1835933200072</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>627.2503733071379</v>
+        <v>627.2503733071391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>65.5850728565739</v>
+        <v>65.58507285657345</v>
       </c>
       <c r="D3" t="n">
-        <v>309.128579550528</v>
+        <v>309.1285795505291</v>
       </c>
       <c r="E3" t="n">
-        <v>444.7919070216674</v>
+        <v>444.7919070216666</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518645</v>
+        <v>76.18829283518613</v>
       </c>
       <c r="D4" t="n">
-        <v>363.5364933056317</v>
+        <v>363.536493305633</v>
       </c>
       <c r="E4" t="n">
-        <v>545.4579147925102</v>
+        <v>545.4579147925093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518645</v>
+        <v>76.1882928351863</v>
       </c>
       <c r="L4" t="n">
-        <v>363.5364933056317</v>
+        <v>363.536493305633</v>
       </c>
       <c r="M4" t="n">
-        <v>545.4579147925102</v>
+        <v>545.4579147925093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518645</v>
+        <v>76.18829283518613</v>
       </c>
       <c r="L4" t="n">
-        <v>363.5364933056317</v>
+        <v>363.536493305633</v>
       </c>
       <c r="M4" t="n">
-        <v>545.4579147925102</v>
+        <v>545.4579147925093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>79.88594850621311</v>
       </c>
       <c r="X3" t="n">
-        <v>44.54480420886907</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>274.0245813756094</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>55.50534762821418</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>136.672003599508</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>99.79980304913992</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>98.38491328483656</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.86881082231288</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>25.4769362701272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>155.2539261820507</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.8496739671129</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>211.277087289835</v>
+        <v>251.0487496416431</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>32.30547438570376</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>21.02879127064095</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>53.33426565634895</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3262220590292</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.4259666997844</v>
       </c>
       <c r="I10" t="n">
-        <v>105.3866826862323</v>
+        <v>91.18212920419214</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4398495319112</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.004418555096</v>
       </c>
       <c r="T10" t="n">
-        <v>40.58291209342372</v>
+        <v>220.8325355125372</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2282244128857</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.711290827417108</v>
+        <v>3.711290827417111</v>
       </c>
       <c r="H8" t="n">
-        <v>38.00825718628547</v>
+        <v>38.0082571862855</v>
       </c>
       <c r="I8" t="n">
-        <v>143.0795396239982</v>
+        <v>143.0795396239983</v>
       </c>
       <c r="J8" t="n">
-        <v>314.9911698634931</v>
+        <v>314.9911698634933</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0901105880594</v>
+        <v>472.0901105880598</v>
       </c>
       <c r="L8" t="n">
-        <v>585.6695272476258</v>
+        <v>585.6695272476263</v>
       </c>
       <c r="M8" t="n">
-        <v>651.6701954997047</v>
+        <v>651.6701954997053</v>
       </c>
       <c r="N8" t="n">
-        <v>662.2149005631037</v>
+        <v>662.2149005631043</v>
       </c>
       <c r="O8" t="n">
-        <v>625.3107523979747</v>
+        <v>625.3107523979753</v>
       </c>
       <c r="P8" t="n">
-        <v>533.6882600961148</v>
+        <v>533.6882600961153</v>
       </c>
       <c r="Q8" t="n">
-        <v>400.7776573392395</v>
+        <v>400.7776573392399</v>
       </c>
       <c r="R8" t="n">
-        <v>233.1293724377401</v>
+        <v>233.1293724377403</v>
       </c>
       <c r="S8" t="n">
-        <v>84.57103972976743</v>
+        <v>84.57103972976751</v>
       </c>
       <c r="T8" t="n">
-        <v>16.2461755970184</v>
+        <v>16.24617559701841</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2969032661933686</v>
+        <v>0.2969032661933689</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98571565355624</v>
+        <v>1.985715653556242</v>
       </c>
       <c r="H9" t="n">
-        <v>19.1778327593458</v>
+        <v>19.17783275934581</v>
       </c>
       <c r="I9" t="n">
-        <v>68.36784158077407</v>
+        <v>68.36784158077413</v>
       </c>
       <c r="J9" t="n">
-        <v>187.6065828651534</v>
+        <v>187.6065828651536</v>
       </c>
       <c r="K9" t="n">
-        <v>320.6495316534215</v>
+        <v>320.6495316534218</v>
       </c>
       <c r="L9" t="n">
-        <v>431.1528659179898</v>
+        <v>431.1528659179902</v>
       </c>
       <c r="M9" t="n">
-        <v>503.1350583594034</v>
+        <v>503.1350583594038</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4515462290855</v>
+        <v>516.4515462290859</v>
       </c>
       <c r="O9" t="n">
-        <v>472.4522678002867</v>
+        <v>472.4522678002871</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1845970374193</v>
+        <v>379.1845970374196</v>
       </c>
       <c r="Q9" t="n">
-        <v>253.4748613206176</v>
+        <v>253.4748613206178</v>
       </c>
       <c r="R9" t="n">
-        <v>123.2885561041322</v>
+        <v>123.2885561041323</v>
       </c>
       <c r="S9" t="n">
-        <v>36.88379733688891</v>
+        <v>36.88379733688894</v>
       </c>
       <c r="T9" t="n">
-        <v>8.003827568500807</v>
+        <v>8.003827568500814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1306391877339632</v>
+        <v>0.1306391877339633</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.664757299429519</v>
+        <v>1.664757299429521</v>
       </c>
       <c r="H10" t="n">
-        <v>14.80120580765519</v>
+        <v>14.80120580765521</v>
       </c>
       <c r="I10" t="n">
-        <v>50.06379224102593</v>
+        <v>50.06379224102597</v>
       </c>
       <c r="J10" t="n">
-        <v>117.698341069667</v>
+        <v>117.6983410696671</v>
       </c>
       <c r="K10" t="n">
-        <v>193.414529879175</v>
+        <v>193.4145298791752</v>
       </c>
       <c r="L10" t="n">
-        <v>247.504007953367</v>
+        <v>247.5040079533672</v>
       </c>
       <c r="M10" t="n">
-        <v>260.9582737642109</v>
+        <v>260.9582737642111</v>
       </c>
       <c r="N10" t="n">
-        <v>254.7532692845193</v>
+        <v>254.7532692845195</v>
       </c>
       <c r="O10" t="n">
-        <v>235.3058771957289</v>
+        <v>235.3058771957291</v>
       </c>
       <c r="P10" t="n">
-        <v>201.3448282873665</v>
+        <v>201.3448282873667</v>
       </c>
       <c r="Q10" t="n">
-        <v>139.400722591321</v>
+        <v>139.4007225913211</v>
       </c>
       <c r="R10" t="n">
-        <v>74.85354184525819</v>
+        <v>74.85354184525826</v>
       </c>
       <c r="S10" t="n">
-        <v>29.01217948187625</v>
+        <v>29.01217948187628</v>
       </c>
       <c r="T10" t="n">
-        <v>7.113053915744309</v>
+        <v>7.113053915744315</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09080494360524663</v>
+        <v>0.0908049436052467</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>509.0826837242976</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33746,10 +33746,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068205</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>217.4386117456602</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>133.9452653368068</v>
+        <v>133.945265336807</v>
       </c>
       <c r="K8" t="n">
-        <v>252.0002595430788</v>
+        <v>252.0002595430792</v>
       </c>
       <c r="L8" t="n">
-        <v>349.9031122776385</v>
+        <v>349.9031122776391</v>
       </c>
       <c r="M8" t="n">
-        <v>421.323962272432</v>
+        <v>421.3239622724326</v>
       </c>
       <c r="N8" t="n">
-        <v>432.8018369665128</v>
+        <v>432.8018369665133</v>
       </c>
       <c r="O8" t="n">
-        <v>395.212540976288</v>
+        <v>395.2125409762886</v>
       </c>
       <c r="P8" t="n">
-        <v>302.4552643408453</v>
+        <v>302.4552643408458</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.47196746479</v>
+        <v>178.4719674647904</v>
       </c>
       <c r="R8" t="n">
-        <v>17.54383462360801</v>
+        <v>17.54383462360821</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.76895619848671</v>
+        <v>60.76895619848688</v>
       </c>
       <c r="K9" t="n">
-        <v>182.8080926790625</v>
+        <v>182.8080926790628</v>
       </c>
       <c r="L9" t="n">
-        <v>292.5984861381156</v>
+        <v>292.598486138116</v>
       </c>
       <c r="M9" t="n">
-        <v>361.0010244373851</v>
+        <v>627.2503733071391</v>
       </c>
       <c r="N9" t="n">
-        <v>627.2503733071379</v>
+        <v>627.2503733071391</v>
       </c>
       <c r="O9" t="n">
-        <v>367.3198244967897</v>
+        <v>329.8560233558426</v>
       </c>
       <c r="P9" t="n">
-        <v>245.210189623089</v>
+        <v>245.2101896230893</v>
       </c>
       <c r="Q9" t="n">
-        <v>323.5703749704452</v>
+        <v>117.9155491931296</v>
       </c>
       <c r="R9" t="n">
-        <v>23.13072195148909</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.33916095299425</v>
+        <v>24.33916095299435</v>
       </c>
       <c r="K10" t="n">
-        <v>171.1450380532922</v>
+        <v>171.1450380532924</v>
       </c>
       <c r="L10" t="n">
-        <v>275.0940332136831</v>
+        <v>275.0940332136834</v>
       </c>
       <c r="M10" t="n">
-        <v>300.5421507260515</v>
+        <v>300.5421507260517</v>
       </c>
       <c r="N10" t="n">
-        <v>298.8854416637479</v>
+        <v>298.8854416637481</v>
       </c>
       <c r="O10" t="n">
-        <v>259.8910051097686</v>
+        <v>259.8910051097688</v>
       </c>
       <c r="P10" t="n">
-        <v>198.62338755226</v>
+        <v>198.6233875522602</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.23867933962659</v>
+        <v>53.2386793396267</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>377.7409716409642</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
